--- a/data-raw/lander.multi.uniformity.xlsx
+++ b/data-raw/lander.multi.uniformity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8485BD-706D-4DB0-A1ED-E5D2BF6CDE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="14340" windowHeight="9000"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1929" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,9 +99,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +139,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +245,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,23 +387,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>67</v>
       </c>
@@ -419,7 +420,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>86</v>
       </c>
@@ -436,7 +437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>83</v>
       </c>
@@ -453,7 +454,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>81</v>
       </c>
@@ -470,7 +471,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>82</v>
       </c>
@@ -487,7 +488,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>97</v>
       </c>
@@ -504,7 +505,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>90</v>
       </c>
@@ -521,7 +522,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>94</v>
       </c>
@@ -538,7 +539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>68</v>
       </c>
@@ -555,7 +556,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>88</v>
       </c>
@@ -572,7 +573,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>73</v>
       </c>
@@ -589,7 +590,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100</v>
       </c>
@@ -606,7 +607,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>125</v>
       </c>
@@ -623,7 +624,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>125</v>
       </c>
@@ -640,7 +641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>164</v>
       </c>
@@ -657,7 +658,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>141</v>
       </c>
@@ -674,7 +675,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>145</v>
       </c>
@@ -691,7 +692,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>151</v>
       </c>
@@ -708,7 +709,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>111</v>
       </c>
@@ -725,7 +726,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>117</v>
       </c>
@@ -742,7 +743,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>103</v>
       </c>
@@ -759,7 +760,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>110</v>
       </c>
@@ -776,7 +777,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>97</v>
       </c>
@@ -793,7 +794,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>103</v>
       </c>
@@ -810,7 +811,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>109</v>
       </c>
@@ -827,7 +828,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>94</v>
       </c>
@@ -844,7 +845,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>92</v>
       </c>
@@ -861,7 +862,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>98</v>
       </c>
@@ -878,7 +879,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>96</v>
       </c>
@@ -895,7 +896,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>100</v>
       </c>
@@ -912,7 +913,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>94</v>
       </c>
@@ -929,7 +930,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>98</v>
       </c>
@@ -946,7 +947,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>102</v>
       </c>
@@ -963,7 +964,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>103</v>
       </c>
@@ -980,7 +981,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>136</v>
       </c>
@@ -997,7 +998,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>121</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>98</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>129</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>169</v>
       </c>
@@ -1071,16 +1072,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>415</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>426</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>457</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>424</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>382</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>424</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>440</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>440</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>489</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>550</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>534</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>564</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>638</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>481</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>514</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>481</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>457</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>597</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>567</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>539</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>498</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>506</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>528</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>534</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>468</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>539</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>561</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>489</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>484</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>465</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>479</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>528</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>594</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>594</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>597</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>556</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>616</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>542</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>492</v>
       </c>
@@ -1749,16 +1750,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>171</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>184</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>179</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>193</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>209</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>206</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>215</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>245</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>281</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>305</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>261</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>267</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>275</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>209</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>151</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>129</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>206</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>187</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>168</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>190</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>184</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>173</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>193</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>165</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>193</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>173</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>154</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>121</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>146</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>124</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>135</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>132</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>154</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>138</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>157</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>160</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>179</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>179</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>157</v>
       </c>
@@ -2427,16 +2428,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
         <v>83</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>85</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>72</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>74</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>85</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>99</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>83</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>91</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>105</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>113</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>140</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>140</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>138</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>146</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>69</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>140</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>168</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>99</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>171</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>160</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>116</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>118</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>124</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>113</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>135</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>83</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>143</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>132</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>149</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>132</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>124</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>173</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>209</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>190</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>201</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>190</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>193</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>217</v>
       </c>
